--- a/biology/Biologie cellulaire et moléculaire/Divisome/Divisome.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Divisome/Divisome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le divisome est un complexe protéique bactérien responsable de la division cellulaire, de la construction des membranes interne et externe pendant la division et de la synthèse du peptidoglycane (PG) au site de division.  
 C'est un complexe protéique membranaire avec des protéines des deux côtés de la membrane cytoplasmique. Dans les cellules à Gram négatif, il est situé dans la membrane interne. Le divisome est presque omniprésent dans les bactéries bien que sa composition puisse varier selon les espèces.
